--- a/biology/Mycologie/Bolet_jaune/Bolet_jaune.xlsx
+++ b/biology/Mycologie/Bolet_jaune/Bolet_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet jaune, Nonnette voilée
 Suillus luteus, le Bolet jaune, appelé aussi Nonnette voilée, Bolet beurré ou encore Bolet baveux, autrefois Boletus luteus, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par son pied orné d'un anneau et son habitat exclusivement sous pins.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus luteus (L.) Roussel, 1821[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luteus L., 1753[1].
-Synonymes
-Suillus luteus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus luteus (L.) Roussel, 1821. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luteus L., 1753.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus luteus a pour synonymes :
 Boletopsis lutea (L.) Henn., 1900
 Boletus luteus L., 1753
 Boletus volvatus Batsch, 1783
@@ -525,92 +574,272 @@
 Ixocomus luteus (L.) Quél., 1888
 Viscipellis lutea (L.) Quél., 1886
 Viscipellis luteus (L.) Quél. (1886), 1886
-Phylogénie
-Le Bolet jaune est l'une des nombreuses espèces décrites pour la première fois en 1753 par le "père de la taxonomie" Carl Linnaeus, qui lui a donné le nom de Boletus luteus dans le deuxième volume de son ouvrage Species Plantarum. L'espèce a été reclassée (et est devenue l'espèce type) dans le genre Suillus par le naturaliste français Henri François Anne de Roussel en 1796[2].
-Étymologie
-L'épithète spécifique, du latin lūtěus, signifie "jaune".
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet jaune[3], Nonnette voilée[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet jaune est l'une des nombreuses espèces décrites pour la première fois en 1753 par le "père de la taxonomie" Carl Linnaeus, qui lui a donné le nom de Boletus luteus dans le deuxième volume de son ouvrage Species Plantarum. L'espèce a été reclassée (et est devenue l'espèce type) dans le genre Suillus par le naturaliste français Henri François Anne de Roussel en 1796.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, du latin lūtěus, signifie "jaune".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet jaune, Nonnette voilée.
 Suillus luteus est parfois nommé à tort "Cèpe des pins", mais le Cèpe des pins est une tout autre espèce ; Boletus pinophilus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_jaune</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus luteus, le Bolet jaune, sont les suivantes :
-Son chapeau mesure 4 à 15 cm, il est fortement visqueux puis fibrilleux en séchant, de couleur brun marron, brun chocolat à brun-rouge[5]. La cuticule est séparable jusqu'à mi-rayon. La marge est débordante[6].
-L'hyménophore présente des tubes jaune clair puis jaune verdâtre à la fin[5], longs de 8 à 12 mm[6]. Les pores sont fins, jaune[5].
-Son stipe mesure 4 à 12 cm x 1 à 3 cm, de couleur blanc puis jaune citron et enfin jaunâtre, orné d'un anneau ample et membraneux, blanc dessus et parfois brun violacé dessous ; au-dessus de l'anneau, le pied est couvert de granulations roussâtres[5].
-La chair est épaisse, molle, crème à jaunâtre. Sa saveur est douce, mais un peu acidulée. Son odeur est faible, agréable, un peu fruitée[5].
+Son chapeau mesure 4 à 15 cm, il est fortement visqueux puis fibrilleux en séchant, de couleur brun marron, brun chocolat à brun-rouge. La cuticule est séparable jusqu'à mi-rayon. La marge est débordante.
+L'hyménophore présente des tubes jaune clair puis jaune verdâtre à la fin, longs de 8 à 12 mm. Les pores sont fins, jaune.
+Son stipe mesure 4 à 12 cm x 1 à 3 cm, de couleur blanc puis jaune citron et enfin jaunâtre, orné d'un anneau ample et membraneux, blanc dessus et parfois brun violacé dessous ; au-dessus de l'anneau, le pied est couvert de granulations roussâtres.
+La chair est épaisse, molle, crème à jaunâtre. Sa saveur est douce, mais un peu acidulée. Son odeur est faible, agréable, un peu fruitée.
 	Principaux caractères distinctifs
 			Jeune, l'anneau encore attaché cache les pores.
 			Le pied est orné d'un anneau, il est également granulé au-dessus de cet anneau.
 			Évolution de la croissance de S. luteus. Chapeau brun chocolat plus au moins visqueux et pores jaunes. L'anneau commence attaché aux bords du chapeau pour se déployer ensuite. La chair est blanchâtre, ne change pas de couleur.
-Réactions chimiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gris foncé au KOH sur le chapeau.
 Rosâtre puis bleu-gris au KOH sur la chair.
 Olive grisâtre au FeSO4 sur le chapeau.
-Bleu grisâtre à olive au FeSO4 sur la chair[7].
-Caractéristiques microscopiques
-Ses spores sont elliptiques, fusiformes, lisses, guttulées, jaune pâle, mesurant 7 à 9,5 µm x 2,7 à 3,5 µm. Ses basides sont cylindriques clavées, tétrasporiques, non bouclées. Ses cheilocystides sont cylindriques clavées, mesurant 37 à 52 µm x 5 à 7,5 µm. Sa cuticule est constituée d'hyphes parallèles couchées pigmentées de brun, de 2 à 5 µm de large enrobées dans une masse gélatineuse[6].
+Bleu grisâtre à olive au FeSO4 sur la chair.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolet_jaune</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques, fusiformes, lisses, guttulées, jaune pâle, mesurant 7 à 9,5 µm x 2,7 à 3,5 µm. Ses basides sont cylindriques clavées, tétrasporiques, non bouclées. Ses cheilocystides sont cylindriques clavées, mesurant 37 à 52 µm x 5 à 7,5 µm. Sa cuticule est constituée d'hyphes parallèles couchées pigmentées de brun, de 2 à 5 µm de large enrobées dans une masse gélatineuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_jaune</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Suillus luteus f. albus, forme blanche, possède un chapeau blanc puis crème, seuls les tubes et les pores sont de couleur jaune.
 Suillus luteus f. decolorans, forme décolorée, au chapeau plus clair, allant de l'ocre-jaune jusqu'à fauvâtre et vergeté.
-Suillus luteus f. ochraceobrunneolus, forme brunâtre ochracé, identique à la précédente mais non vergeté[6]. Diffère du type par un chapeau plus pâle, dès le début brunâtre ochracé, fauve jaunâtre, assez unicolore; revêtement très muqueux, vergeté par de nombreuses fibrilles bien organisées radialement, concolores au fond ou plus foncées[8].</t>
+Suillus luteus f. ochraceobrunneolus, forme brunâtre ochracé, identique à la précédente mais non vergeté. Diffère du type par un chapeau plus pâle, dès le début brunâtre ochracé, fauve jaunâtre, assez unicolore; revêtement très muqueux, vergeté par de nombreuses fibrilles bien organisées radialement, concolores au fond ou plus foncées.</t>
         </is>
       </c>
     </row>
